--- a/RandomMST/results.xlsx
+++ b/RandomMST/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Dimension</t>
   </si>
@@ -28,10 +28,16 @@
     <t>log_2 n</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Dim 0</t>
   </si>
   <si>
-    <t>Dimension 0</t>
+    <t>Dim 2</t>
+  </si>
+  <si>
+    <t>Dim 3</t>
+  </si>
+  <si>
+    <t>Dim 4</t>
   </si>
 </sst>
 </file>
@@ -39,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -98,8 +104,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -110,20 +122,26 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,75 +471,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>131072</v>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1.11348162861502</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.7160457449991098</v>
+      </c>
+      <c r="C2" s="4">
+        <v>17.832779380000002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28.518424490000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1.1811830820657701</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10.7974908279157</v>
+      </c>
+      <c r="C3" s="4">
+        <v>27.59744251</v>
+      </c>
+      <c r="D3" s="4">
+        <v>46.918836720000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>1.18826182143426</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14.8518168006092</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43.056824859999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>78.282120980000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>1.19037513986864</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21.0932111046993</v>
+      </c>
+      <c r="C5" s="4">
+        <v>67.794734030000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>130.56701039999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1.1970641592820099</v>
+      </c>
+      <c r="B6" s="3">
+        <v>29.65684989651</v>
+      </c>
+      <c r="C6" s="4">
+        <v>107.2951336</v>
+      </c>
+      <c r="D6" s="4">
+        <v>216.39804910000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>1.20017809603352</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41.827998978089198</v>
+      </c>
+      <c r="C7" s="4">
+        <v>169.3484364</v>
+      </c>
+      <c r="D7" s="4">
+        <v>360.65318630000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>1.2014444994990601</v>
+      </c>
+      <c r="B8" s="3">
+        <v>58.878235137698397</v>
+      </c>
+      <c r="C8" s="4">
+        <v>266.87321800000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>603.35094819999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>1.2009736487835101</v>
+      </c>
+      <c r="B9" s="3">
+        <v>83.073614302271807</v>
+      </c>
+      <c r="C9" s="4">
+        <v>422.19451070000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1009.778941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>1.2013080616785601</v>
+      </c>
+      <c r="B10" s="3">
+        <v>117.551826323813</v>
+      </c>
+      <c r="C10" s="4">
+        <v>668.60525740000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1686.3343420000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>1.20368306945982</v>
+      </c>
+      <c r="B11" s="3">
+        <v>166.120848536116</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1058.7307229999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2827.7674160000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>1.2019162013729801</v>
+      </c>
+      <c r="B12" s="3">
+        <v>234.5813894529</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1677.107317</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4740.3670140000004</v>
       </c>
     </row>
   </sheetData>
@@ -538,73 +661,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1">
-      <c r="C2" s="3">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1">
+      <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>11</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>12</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>13</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>14</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>15</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>16</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3">
@@ -642,8 +765,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4">
@@ -681,8 +804,8 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1">
@@ -720,8 +843,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="1">
@@ -759,225 +882,225 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.11348162861502</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7.7160457449991098</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>17.832779380000002</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>28.518424490000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1.1811830820657701</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>10.7974908279157</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>27.59744251</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>46.918836720000002</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.18826182143426</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>14.8518168006092</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>43.056824859999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>78.282120980000002</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1.19037513986864</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>21.0932111046993</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>67.794734030000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>130.56701039999999</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.1970641592820099</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>29.65684989651</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>107.2951336</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>216.39804910000001</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1.20017809603352</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>41.827998978089198</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>169.3484364</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>360.65318630000002</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1.2014444994990601</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>58.878235137698397</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>266.87321800000001</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>603.35094819999995</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1.2009736487835101</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>83.073614302271807</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>422.19451070000002</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1009.778941</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1.2013080616785601</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>117.551826323813</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>668.60525740000003</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1686.3343420000001</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1.20368306945982</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>166.120848536116</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1058.7307229999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2827.7674160000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1.2019162013729801</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>234.5813894529</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1677.107317</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>4740.3670140000004</v>
       </c>
     </row>
